--- a/grupos/6ALCM - Estadisticos 20202.xlsx
+++ b/grupos/6ALCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -191,19 +191,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
     <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
     <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
   </si>
   <si>
     <t>NC</t>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3800,19 +3800,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>77.78</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3832,19 +3832,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>88.89</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3855,28 +3855,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3887,28 +3887,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>36</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>94.44</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4671,7 +4671,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4701,191 +4701,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920253</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920309</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920302</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920308</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920311</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
